--- a/Docs/09_Meilensteinanalyse.xlsx
+++ b/Docs/09_Meilensteinanalyse.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FAE67A-8E39-48B3-92AB-303D968DC2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C603D601-95F3-4428-9457-66CE075033AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="IstStand" sheetId="2" r:id="rId2"/>
+    <sheet name="SollStand" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Report-Termine</t>
   </si>
@@ -1044,7 +1044,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$4:$C$4</c:f>
+              <c:f>IstStand!$B$4:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1070,7 +1070,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$D$2:$W$2</c:f>
+              <c:f>IstStand!$D$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1139,7 +1139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$D$4:$W$4</c:f>
+              <c:f>IstStand!$D$4:$W$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1159,6 +1159,12 @@
                   <c:v>45438</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45438</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45438</c:v>
                 </c:pt>
               </c:numCache>
@@ -1176,7 +1182,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$5:$C$5</c:f>
+              <c:f>IstStand!$B$5:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1202,7 +1208,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$D$2:$W$2</c:f>
+              <c:f>IstStand!$D$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1271,7 +1277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$D$5:$W$5</c:f>
+              <c:f>IstStand!$D$5:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1291,6 +1297,12 @@
                   <c:v>45364</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45364</c:v>
                 </c:pt>
               </c:numCache>
@@ -1308,7 +1320,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$6:$C$6</c:f>
+              <c:f>IstStand!$B$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1334,7 +1346,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$D$2:$W$2</c:f>
+              <c:f>IstStand!$D$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1403,7 +1415,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$D$6:$W$6</c:f>
+              <c:f>IstStand!$D$6:$W$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1423,6 +1435,12 @@
                   <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45394</c:v>
                 </c:pt>
               </c:numCache>
@@ -1440,7 +1458,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$7:$C$7</c:f>
+              <c:f>IstStand!$B$7:$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1466,7 +1484,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$D$2:$W$2</c:f>
+              <c:f>IstStand!$D$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1535,7 +1553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$D$7:$W$7</c:f>
+              <c:f>IstStand!$D$7:$W$7</c:f>
               <c:numCache>
                 <c:formatCode>dd\.mm\.yyyy;@</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1555,6 +1573,12 @@
                   <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="m/d/yyyy">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="m/d/yyyy">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="m/d/yyyy">
                   <c:v>45387</c:v>
                 </c:pt>
               </c:numCache>
@@ -1572,7 +1596,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$8:$C$8</c:f>
+              <c:f>IstStand!$B$8:$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1598,7 +1622,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$D$2:$W$2</c:f>
+              <c:f>IstStand!$D$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1667,7 +1691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$D$8:$W$8</c:f>
+              <c:f>IstStand!$D$8:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1687,6 +1711,12 @@
                   <c:v>45434</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45434</c:v>
                 </c:pt>
               </c:numCache>
@@ -1704,14 +1734,14 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$9:$C$9</c:f>
+              <c:f>IstStand!$B$9:$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>M6: "Sound, Musik"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.05.2024</c:v>
+                  <c:v>10.05.2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1730,7 +1760,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$D$2:$W$2</c:f>
+              <c:f>IstStand!$D$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1799,27 +1829,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$D$9:$W$9</c:f>
+              <c:f>IstStand!$D$9:$W$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45434</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45434</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45434</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45434</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45434</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45434</c:v>
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,7 +1872,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$10:$C$10</c:f>
+              <c:f>IstStand!$B$10:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1864,7 +1900,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$D$2:$W$2</c:f>
+              <c:f>IstStand!$D$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1933,7 +1969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$D$10:$W$10</c:f>
+              <c:f>IstStand!$D$10:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1953,6 +1989,12 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -1962,6 +2004,1260 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000043-89AF-436A-82E3-93E764C400AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="718231048"/>
+        <c:axId val="718233096"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="718231048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718233096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="718233096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45470"/>
+          <c:min val="45323"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718231048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Meilensteintrendanalyse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SollStand!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M1: Grundlegende Struktur</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.05.2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SollStand!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SollStand!$D$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C00-4782-A046-7C21E149A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SollStand!$B$5:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M2: "Speicherfunktion"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>06.03.2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SollStand!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SollStand!$D$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C00-4782-A046-7C21E149A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SollStand!$B$6:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M3: "Tilemap"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.04.2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SollStand!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SollStand!$D$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C00-4782-A046-7C21E149A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SollStand!$B$7:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M4: "Grafik, Design, Animation"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>05.04.2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SollStand!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SollStand!$D$7:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>dd\.mm\.yyyy;@</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="m/d/yyyy">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="m/d/yyyy">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="m/d/yyyy">
+                  <c:v>45387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C00-4782-A046-7C21E149A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SollStand!$B$8:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M5: "Ingamewährung"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.05.2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SollStand!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SollStand!$D$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5C00-4782-A046-7C21E149A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SollStand!$B$9:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M6: "Sound, Musik"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.05.2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SollStand!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SollStand!$D$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5C00-4782-A046-7C21E149A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SollStand!$B$10:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M7: "Nachbearbeitung"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.06.2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SollStand!$D$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SollStand!$D$10:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5C00-4782-A046-7C21E149A5AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2216,7 +3512,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2814,15 +4666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2840,8 +4692,114 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2628900" y="3467100"/>
-          <a:ext cx="10220325" cy="4371975"/>
+          <a:off x="3756660" y="2857500"/>
+          <a:ext cx="11315700" cy="4381501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83802D68-0383-4C95-9DA3-49C7F5187776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rechtwinkliges Dreieck 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD8898F-B4CD-4849-B3D4-A3A2BF3D5D70}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{02EA3207-FE3D-0170-D34E-CD2A3A8B24ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3756660" y="2857500"/>
+          <a:ext cx="11315700" cy="4381501"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -3460,8 +5418,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3588,6 +5546,12 @@
       <c r="I4" s="2">
         <v>45438</v>
       </c>
+      <c r="J4" s="2">
+        <v>45438</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45438</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
@@ -3614,8 +5578,12 @@
       <c r="I5" s="2">
         <v>45364</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2">
+        <v>45364</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45364</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -3643,8 +5611,12 @@
       <c r="I6" s="2">
         <v>45394</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45394</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -3677,6 +5649,12 @@
       <c r="I7" s="2">
         <v>45387</v>
       </c>
+      <c r="J7" s="2">
+        <v>45387</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45387</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
@@ -3703,31 +5681,43 @@
       <c r="I8" s="2">
         <v>45434</v>
       </c>
+      <c r="J8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45434</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>45434</v>
+        <v>45422</v>
       </c>
       <c r="D9" s="2">
-        <v>45434</v>
+        <v>45422</v>
       </c>
       <c r="E9" s="2">
-        <v>45434</v>
+        <v>45422</v>
       </c>
       <c r="F9" s="2">
-        <v>45434</v>
+        <v>45422</v>
       </c>
       <c r="G9" s="2">
-        <v>45434</v>
+        <v>45422</v>
       </c>
       <c r="H9" s="2">
-        <v>45434</v>
+        <v>45422</v>
       </c>
       <c r="I9" s="2">
-        <v>45434</v>
+        <v>45422</v>
+      </c>
+      <c r="J9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45422</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -3753,6 +5743,12 @@
         <v>45455</v>
       </c>
       <c r="I10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="K10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -3763,19 +5759,359 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DA895-6E14-4DD9-A0B6-D1C2D5364458}">
+  <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="2">
+        <v>45323</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2+7</f>
+        <v>45330</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:W2" si="0">E2+7</f>
+        <v>45337</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
+        <v>45344</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2+8</f>
+        <v>45352</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" si="0"/>
+        <v>45359</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" si="0"/>
+        <v>45366</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
+        <v>45373</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="0"/>
+        <v>45380</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" si="0"/>
+        <v>45387</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" si="0"/>
+        <v>45394</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" si="0"/>
+        <v>45401</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" si="0"/>
+        <v>45408</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" si="0"/>
+        <v>45415</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" si="0"/>
+        <v>45422</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="0"/>
+        <v>45429</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="0"/>
+        <v>45436</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="0"/>
+        <v>45443</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="0"/>
+        <v>45450</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" si="0"/>
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45387</v>
+      </c>
+      <c r="D7" s="11">
+        <v>45387</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45387</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45387</v>
+      </c>
+      <c r="G7" s="11">
+        <v>45387</v>
+      </c>
+      <c r="H7" s="11">
+        <v>45387</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45387</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45387</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="J9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45455</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -3919,16 +6255,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3944,12 +6279,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/09_Meilensteinanalyse.xlsx
+++ b/Docs/09_Meilensteinanalyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C603D601-95F3-4428-9457-66CE075033AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47668EFE-476E-4BC8-BE77-3DE19FDA40A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2421,6 +2421,12 @@
                 <c:pt idx="7">
                   <c:v>45427</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2559,6 +2565,12 @@
                 <c:pt idx="7">
                   <c:v>45357</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2697,6 +2709,12 @@
                 <c:pt idx="7">
                   <c:v>45394</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2835,6 +2853,12 @@
                 <c:pt idx="7" formatCode="m/d/yyyy">
                   <c:v>45387</c:v>
                 </c:pt>
+                <c:pt idx="8" formatCode="m/d/yyyy">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="m/d/yyyy">
+                  <c:v>45394</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2973,6 +2997,12 @@
                 <c:pt idx="7">
                   <c:v>45434</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3109,6 +3139,12 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3249,6 +3285,12 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -4774,13 +4816,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>194310</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>177048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:rowOff>169429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4798,8 +4840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3756660" y="2857500"/>
-          <a:ext cx="11315700" cy="4381501"/>
+          <a:off x="3753298" y="2933695"/>
+          <a:ext cx="11289478" cy="4403016"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5762,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DA895-6E14-4DD9-A0B6-D1C2D5364458}">
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5896,6 +5938,12 @@
       <c r="K4" s="2">
         <v>45427</v>
       </c>
+      <c r="L4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45427</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
@@ -5928,7 +5976,12 @@
       <c r="K5" s="2">
         <v>45357</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45357</v>
+      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
@@ -5961,8 +6014,12 @@
       <c r="K6" s="2">
         <v>45394</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="2">
+        <v>45394</v>
+      </c>
+      <c r="M6" s="2">
+        <v>45401</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5999,6 +6056,12 @@
       <c r="K7" s="2">
         <v>45387</v>
       </c>
+      <c r="L7" s="2">
+        <v>45387</v>
+      </c>
+      <c r="M7" s="2">
+        <v>45394</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
@@ -6031,6 +6094,12 @@
       <c r="K8" s="2">
         <v>45434</v>
       </c>
+      <c r="L8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45434</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
@@ -6063,6 +6132,12 @@
       <c r="K9" s="2">
         <v>45422</v>
       </c>
+      <c r="L9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="M9" s="2">
+        <v>45422</v>
+      </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
@@ -6093,6 +6168,12 @@
         <v>45455</v>
       </c>
       <c r="K10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="L10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="M10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -6103,15 +6184,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -6255,15 +6327,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6279,4 +6352,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/09_Meilensteinanalyse.xlsx
+++ b/Docs/09_Meilensteinanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47668EFE-476E-4BC8-BE77-3DE19FDA40A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECC3B5-297A-4DD3-8556-49E2211F74B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2427,6 +2427,9 @@
                 <c:pt idx="9">
                   <c:v>45427</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>45427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2571,6 +2574,9 @@
                 <c:pt idx="9">
                   <c:v>45357</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>45357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2715,6 +2721,9 @@
                 <c:pt idx="9">
                   <c:v>45401</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>45408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2859,6 +2868,9 @@
                 <c:pt idx="9" formatCode="m/d/yyyy">
                   <c:v>45394</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3003,6 +3015,9 @@
                 <c:pt idx="9">
                   <c:v>45434</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>45434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3145,6 +3160,9 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3291,6 +3309,9 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -5171,13 +5192,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="7"/>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -5194,7 +5215,7 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="6">
@@ -5277,7 +5298,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5285,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5313,7 +5334,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5328,7 +5349,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5343,7 +5364,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5358,7 +5379,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5373,7 +5394,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5389,7 +5410,7 @@
       <c r="N9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5406,35 +5427,35 @@
       <c r="O10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P17" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5464,17 +5485,17 @@
       <selection activeCell="I10" sqref="I10:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D2" s="2">
         <v>45323</v>
       </c>
@@ -5555,7 +5576,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5563,7 +5584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -5595,7 +5616,7 @@
         <v>45438</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -5628,7 +5649,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -5666,7 +5687,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -5698,7 +5719,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5730,7 +5751,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5762,7 +5783,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5804,21 +5825,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DA895-6E14-4DD9-A0B6-D1C2D5364458}">
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D2" s="2">
         <v>45323</v>
       </c>
@@ -5899,7 +5920,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5907,7 +5928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -5944,8 +5965,11 @@
       <c r="M4" s="2">
         <v>45427</v>
       </c>
+      <c r="N4" s="2">
+        <v>45427</v>
+      </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -5982,8 +6006,11 @@
       <c r="M5" s="2">
         <v>45357</v>
       </c>
+      <c r="N5" s="2">
+        <v>45357</v>
+      </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -6020,12 +6047,14 @@
       <c r="M6" s="2">
         <v>45401</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <v>45408</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -6062,8 +6091,11 @@
       <c r="M7" s="2">
         <v>45394</v>
       </c>
+      <c r="N7" s="2">
+        <v>45401</v>
+      </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -6100,8 +6132,11 @@
       <c r="M8" s="2">
         <v>45434</v>
       </c>
+      <c r="N8" s="2">
+        <v>45434</v>
+      </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6138,8 +6173,11 @@
       <c r="M9" s="2">
         <v>45422</v>
       </c>
+      <c r="N9" s="2">
+        <v>45422</v>
+      </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -6174,6 +6212,9 @@
         <v>45455</v>
       </c>
       <c r="M10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="N10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -6184,6 +6225,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -6327,16 +6377,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6352,12 +6401,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/09_Meilensteinanalyse.xlsx
+++ b/Docs/09_Meilensteinanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECC3B5-297A-4DD3-8556-49E2211F74B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B57ABC7-FF8E-4549-9BB0-648A5E84BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2430,6 +2430,9 @@
                 <c:pt idx="10">
                   <c:v>45427</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>45427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2577,6 +2580,9 @@
                 <c:pt idx="10">
                   <c:v>45357</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>45357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2724,6 +2730,9 @@
                 <c:pt idx="10">
                   <c:v>45408</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>45408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2871,6 +2880,9 @@
                 <c:pt idx="10" formatCode="m/d/yyyy">
                   <c:v>45401</c:v>
                 </c:pt>
+                <c:pt idx="11" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3018,6 +3030,9 @@
                 <c:pt idx="10">
                   <c:v>45434</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>45434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3163,6 +3178,9 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3312,6 +3330,9 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -4837,13 +4858,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>194310</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>177048</xdr:rowOff>
+      <xdr:rowOff>181530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>169429</xdr:rowOff>
+      <xdr:rowOff>173911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4861,7 +4882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3753298" y="2933695"/>
+          <a:off x="3748816" y="2938177"/>
           <a:ext cx="11289478" cy="4403016"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
@@ -5192,13 +5213,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="7"/>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -5215,7 +5236,7 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="6">
@@ -5298,7 +5319,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5306,7 +5327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5334,7 +5355,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5349,7 +5370,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5364,7 +5385,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5379,7 +5400,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5394,7 +5415,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5410,7 +5431,7 @@
       <c r="N9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5427,35 +5448,35 @@
       <c r="O10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="7"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="7"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P17" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5485,17 +5506,17 @@
       <selection activeCell="I10" sqref="I10:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="2">
         <v>45323</v>
       </c>
@@ -5576,7 +5597,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5584,7 +5605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -5616,7 +5637,7 @@
         <v>45438</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -5649,7 +5670,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -5687,7 +5708,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -5719,7 +5740,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5751,7 +5772,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5783,7 +5804,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5825,21 +5846,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DA895-6E14-4DD9-A0B6-D1C2D5364458}">
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="2">
         <v>45323</v>
       </c>
@@ -5920,7 +5941,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5928,7 +5949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -5968,8 +5989,11 @@
       <c r="N4" s="2">
         <v>45427</v>
       </c>
+      <c r="O4" s="2">
+        <v>45427</v>
+      </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -6009,8 +6033,11 @@
       <c r="N5" s="2">
         <v>45357</v>
       </c>
+      <c r="O5" s="2">
+        <v>45357</v>
+      </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -6050,11 +6077,13 @@
       <c r="N6" s="2">
         <v>45408</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>45408</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -6094,8 +6123,11 @@
       <c r="N7" s="2">
         <v>45401</v>
       </c>
+      <c r="O7" s="2">
+        <v>45401</v>
+      </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -6135,8 +6167,11 @@
       <c r="N8" s="2">
         <v>45434</v>
       </c>
+      <c r="O8" s="2">
+        <v>45434</v>
+      </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6176,8 +6211,11 @@
       <c r="N9" s="2">
         <v>45422</v>
       </c>
+      <c r="O9" s="2">
+        <v>45422</v>
+      </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -6215,6 +6253,9 @@
         <v>45455</v>
       </c>
       <c r="N10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="O10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -6225,15 +6266,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -6377,15 +6409,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6401,4 +6434,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/09_Meilensteinanalyse.xlsx
+++ b/Docs/09_Meilensteinanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B57ABC7-FF8E-4549-9BB0-648A5E84BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0789F2C6-0FD2-438D-A0EA-3D662D752918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2433,6 +2433,9 @@
                 <c:pt idx="11">
                   <c:v>45427</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>45427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2583,6 +2586,9 @@
                 <c:pt idx="11">
                   <c:v>45357</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>45357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2733,6 +2739,9 @@
                 <c:pt idx="11">
                   <c:v>45408</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2883,6 +2892,9 @@
                 <c:pt idx="11" formatCode="m/d/yyyy">
                   <c:v>45401</c:v>
                 </c:pt>
+                <c:pt idx="12" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3033,6 +3045,9 @@
                 <c:pt idx="11">
                   <c:v>45434</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>45434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3181,6 +3196,9 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3333,6 +3351,9 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -5846,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DA895-6E14-4DD9-A0B6-D1C2D5364458}">
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5992,6 +6013,9 @@
       <c r="O4" s="2">
         <v>45427</v>
       </c>
+      <c r="P4" s="2">
+        <v>45427</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
@@ -6036,6 +6060,9 @@
       <c r="O5" s="2">
         <v>45357</v>
       </c>
+      <c r="P5" s="2">
+        <v>45357</v>
+      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
@@ -6080,7 +6107,9 @@
       <c r="O6" s="2">
         <v>45408</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <v>45408</v>
+      </c>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -6126,6 +6155,9 @@
       <c r="O7" s="2">
         <v>45401</v>
       </c>
+      <c r="P7" s="2">
+        <v>45401</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
@@ -6170,6 +6202,9 @@
       <c r="O8" s="2">
         <v>45434</v>
       </c>
+      <c r="P8" s="2">
+        <v>45434</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
@@ -6214,6 +6249,9 @@
       <c r="O9" s="2">
         <v>45422</v>
       </c>
+      <c r="P9" s="2">
+        <v>45422</v>
+      </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
@@ -6256,6 +6294,9 @@
         <v>45455</v>
       </c>
       <c r="O10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="P10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -6266,6 +6307,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -6409,16 +6459,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6434,12 +6483,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/09_Meilensteinanalyse.xlsx
+++ b/Docs/09_Meilensteinanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0789F2C6-0FD2-438D-A0EA-3D662D752918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE35090-61B4-4568-9B51-3C7CE17589E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2436,6 +2436,9 @@
                 <c:pt idx="12">
                   <c:v>45427</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2589,6 +2592,9 @@
                 <c:pt idx="12">
                   <c:v>45357</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2742,6 +2748,9 @@
                 <c:pt idx="12">
                   <c:v>45408</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2895,6 +2904,9 @@
                 <c:pt idx="12" formatCode="m/d/yyyy">
                   <c:v>45401</c:v>
                 </c:pt>
+                <c:pt idx="13" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3048,6 +3060,9 @@
                 <c:pt idx="12">
                   <c:v>45434</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3199,6 +3214,9 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3354,6 +3372,9 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -5868,7 +5889,7 @@
   <dimension ref="B1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6016,6 +6037,9 @@
       <c r="P4" s="2">
         <v>45427</v>
       </c>
+      <c r="Q4" s="2">
+        <v>45427</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
@@ -6063,6 +6087,9 @@
       <c r="P5" s="2">
         <v>45357</v>
       </c>
+      <c r="Q5" s="2">
+        <v>45357</v>
+      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
@@ -6110,7 +6137,9 @@
       <c r="P6" s="2">
         <v>45408</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="2">
+        <v>45408</v>
+      </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
@@ -6158,6 +6187,9 @@
       <c r="P7" s="2">
         <v>45401</v>
       </c>
+      <c r="Q7" s="2">
+        <v>45401</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
@@ -6205,6 +6237,9 @@
       <c r="P8" s="2">
         <v>45434</v>
       </c>
+      <c r="Q8" s="2">
+        <v>45434</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
@@ -6252,6 +6287,9 @@
       <c r="P9" s="2">
         <v>45422</v>
       </c>
+      <c r="Q9" s="2">
+        <v>45422</v>
+      </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
@@ -6297,6 +6335,9 @@
         <v>45455</v>
       </c>
       <c r="P10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="Q10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -6307,15 +6348,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -6459,15 +6491,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6483,4 +6516,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/09_Meilensteinanalyse.xlsx
+++ b/Docs/09_Meilensteinanalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE35090-61B4-4568-9B51-3C7CE17589E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569C6EB6-C0DC-439F-9C16-4B39FAE028B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2439,6 +2439,12 @@
                 <c:pt idx="13">
                   <c:v>45427</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2595,6 +2601,12 @@
                 <c:pt idx="13">
                   <c:v>45357</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2751,6 +2763,12 @@
                 <c:pt idx="13">
                   <c:v>45408</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2907,6 +2925,12 @@
                 <c:pt idx="13" formatCode="m/d/yyyy">
                   <c:v>45401</c:v>
                 </c:pt>
+                <c:pt idx="14" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3063,6 +3087,12 @@
                 <c:pt idx="13">
                   <c:v>45434</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3217,6 +3247,12 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3375,6 +3411,12 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -5888,8 +5930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DA895-6E14-4DD9-A0B6-D1C2D5364458}">
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6040,6 +6082,12 @@
       <c r="Q4" s="2">
         <v>45427</v>
       </c>
+      <c r="R4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="S4" s="2">
+        <v>45427</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
@@ -6090,6 +6138,12 @@
       <c r="Q5" s="2">
         <v>45357</v>
       </c>
+      <c r="R5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="S5" s="2">
+        <v>45357</v>
+      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
@@ -6140,6 +6194,12 @@
       <c r="Q6" s="2">
         <v>45408</v>
       </c>
+      <c r="R6" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S6" s="2">
+        <v>45408</v>
+      </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
@@ -6190,6 +6250,12 @@
       <c r="Q7" s="2">
         <v>45401</v>
       </c>
+      <c r="R7" s="2">
+        <v>45401</v>
+      </c>
+      <c r="S7" s="2">
+        <v>45401</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
@@ -6240,6 +6306,12 @@
       <c r="Q8" s="2">
         <v>45434</v>
       </c>
+      <c r="R8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="S8" s="2">
+        <v>45434</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
@@ -6290,6 +6362,12 @@
       <c r="Q9" s="2">
         <v>45422</v>
       </c>
+      <c r="R9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="S9" s="2">
+        <v>45422</v>
+      </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
@@ -6338,6 +6416,12 @@
         <v>45455</v>
       </c>
       <c r="Q10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="R10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="S10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -6348,6 +6432,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -6491,16 +6584,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6516,12 +6608,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/09_Meilensteinanalyse.xlsx
+++ b/Docs/09_Meilensteinanalyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569C6EB6-C0DC-439F-9C16-4B39FAE028B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEF3804-BACD-4052-A3CA-4E49D7826DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2445,6 +2445,18 @@
                 <c:pt idx="15">
                   <c:v>45427</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2607,6 +2619,18 @@
                 <c:pt idx="15">
                   <c:v>45357</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2769,6 +2793,18 @@
                 <c:pt idx="15">
                   <c:v>45408</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2931,6 +2967,18 @@
                 <c:pt idx="15" formatCode="m/d/yyyy">
                   <c:v>45401</c:v>
                 </c:pt>
+                <c:pt idx="16" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="m/d/yyyy">
+                  <c:v>45401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3093,6 +3141,18 @@
                 <c:pt idx="15">
                   <c:v>45434</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3253,6 +3313,18 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3417,6 +3489,18 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -4942,11 +5026,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>194310</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>181530</xdr:rowOff>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>788894</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>173911</xdr:rowOff>
     </xdr:to>
@@ -4966,8 +5050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3748816" y="2938177"/>
-          <a:ext cx="11289478" cy="4403016"/>
+          <a:off x="3748816" y="2882153"/>
+          <a:ext cx="11316372" cy="4459040"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -5930,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DA895-6E14-4DD9-A0B6-D1C2D5364458}">
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6088,6 +6172,18 @@
       <c r="S4" s="2">
         <v>45427</v>
       </c>
+      <c r="T4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="U4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="V4" s="2">
+        <v>45427</v>
+      </c>
+      <c r="W4" s="2">
+        <v>45427</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
@@ -6144,6 +6240,18 @@
       <c r="S5" s="2">
         <v>45357</v>
       </c>
+      <c r="T5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="U5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45357</v>
+      </c>
+      <c r="W5" s="2">
+        <v>45357</v>
+      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
@@ -6200,6 +6308,18 @@
       <c r="S6" s="2">
         <v>45408</v>
       </c>
+      <c r="T6" s="2">
+        <v>45408</v>
+      </c>
+      <c r="U6" s="2">
+        <v>45408</v>
+      </c>
+      <c r="V6" s="2">
+        <v>45408</v>
+      </c>
+      <c r="W6" s="2">
+        <v>45408</v>
+      </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
@@ -6256,6 +6376,18 @@
       <c r="S7" s="2">
         <v>45401</v>
       </c>
+      <c r="T7" s="2">
+        <v>45401</v>
+      </c>
+      <c r="U7" s="2">
+        <v>45401</v>
+      </c>
+      <c r="V7" s="2">
+        <v>45401</v>
+      </c>
+      <c r="W7" s="2">
+        <v>45401</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
@@ -6312,6 +6444,18 @@
       <c r="S8" s="2">
         <v>45434</v>
       </c>
+      <c r="T8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="U8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="V8" s="2">
+        <v>45434</v>
+      </c>
+      <c r="W8" s="2">
+        <v>45434</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
@@ -6368,6 +6512,18 @@
       <c r="S9" s="2">
         <v>45422</v>
       </c>
+      <c r="T9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="U9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="V9" s="2">
+        <v>45422</v>
+      </c>
+      <c r="W9" s="2">
+        <v>45422</v>
+      </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
@@ -6422,6 +6578,18 @@
         <v>45455</v>
       </c>
       <c r="S10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="T10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="U10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="V10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="W10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -6432,15 +6600,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -6584,15 +6743,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6608,4 +6768,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>